--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,6 +474,9 @@
       <c r="I2" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="J2" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
@@ -509,6 +512,9 @@
       <c r="I3" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="J3" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,6 +550,9 @@
       <c r="I4" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="J4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
@@ -579,6 +588,9 @@
       <c r="I5" s="1">
         <v>0.01</v>
       </c>
+      <c r="J5" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,6 +626,9 @@
       <c r="I6" s="1">
         <v>0.01</v>
       </c>
+      <c r="J6" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
@@ -649,6 +664,9 @@
       <c r="I7" s="1">
         <v>0.01</v>
       </c>
+      <c r="J7" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
@@ -684,6 +702,9 @@
       <c r="I8" s="1">
         <v>0.01</v>
       </c>
+      <c r="J8" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
@@ -719,6 +740,9 @@
       <c r="I9" s="1">
         <v>0.01</v>
       </c>
+      <c r="J9" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
@@ -754,6 +778,9 @@
       <c r="I10" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="J10" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
@@ -789,6 +816,9 @@
       <c r="I11" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="J11" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
@@ -824,6 +854,9 @@
       <c r="I12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J12" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
@@ -859,6 +892,9 @@
       <c r="I13" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J13" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
       </c>
@@ -894,6 +930,9 @@
       <c r="I14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J14" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,6 +968,9 @@
       <c r="I15" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J15" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>13</v>
       </c>
@@ -964,6 +1006,9 @@
       <c r="I16" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J16" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>13</v>
       </c>
@@ -999,6 +1044,9 @@
       <c r="I17" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J17" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,6 +1082,9 @@
       <c r="I18" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,6 +1120,9 @@
       <c r="I19" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="J19" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1104,6 +1158,9 @@
       <c r="I20" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="J20" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,6 +1196,9 @@
       <c r="I21" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="J21" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1174,6 +1234,9 @@
       <c r="I22" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="J22" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1209,6 +1272,9 @@
       <c r="I23" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="J23" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,6 +1310,9 @@
       <c r="I24" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="J24" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,6 +1348,9 @@
       <c r="I25" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="J25" s="1">
+        <v>2E-3</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,6 +1386,9 @@
       <c r="I26" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="J26" s="1">
+        <v>2E-3</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,6 +1424,9 @@
       <c r="I27" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="J27" s="1">
+        <v>1.5E-3</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1384,6 +1462,9 @@
       <c r="I28" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="J28" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,6 +1499,9 @@
       </c>
       <c r="I29" s="1">
         <v>2E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>13</v>

--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -65,13 +65,13 @@
     <t>m_max</t>
   </si>
   <si>
-    <t>sig_Z_eta</t>
-  </si>
-  <si>
     <t>normalization</t>
   </si>
   <si>
     <t>D0(Z)</t>
+  </si>
+  <si>
+    <t>Z_rap</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -443,12 +443,12 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -478,7 +478,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -516,7 +516,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -554,7 +554,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -592,7 +592,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -630,7 +630,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -668,7 +668,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -706,7 +706,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -744,7 +744,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -782,7 +782,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -820,7 +820,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -858,7 +858,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -972,7 +972,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -1010,7 +1010,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1048,7 +1048,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1086,7 +1086,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1162,7 +1162,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1200,7 +1200,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -1238,7 +1238,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -1276,7 +1276,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1314,7 +1314,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1352,7 +1352,7 @@
         <v>2E-3</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -1390,7 +1390,7 @@
         <v>2E-3</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1428,7 +1428,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
@@ -1466,7 +1466,7 @@
         <v>1E-3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>

--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Z_rap</t>
+  </si>
+  <si>
+    <t>eta_min</t>
+  </si>
+  <si>
+    <t>eta_max</t>
   </si>
 </sst>
 </file>
@@ -395,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="1023" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -419,34 +425,40 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -457,34 +469,40 @@
         <v>1960</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.05</v>
       </c>
-      <c r="E2" s="1">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1">
+        <v>71</v>
       </c>
       <c r="H2" s="1">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -495,34 +513,40 @@
         <v>1960</v>
       </c>
       <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.15</v>
       </c>
-      <c r="E3" s="1">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1">
-        <v>111</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="1">
+        <v>71</v>
       </c>
       <c r="H3" s="1">
+        <v>111</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -533,34 +557,40 @@
         <v>1960</v>
       </c>
       <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.25</v>
       </c>
-      <c r="E4" s="1">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1">
-        <v>111</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="G4" s="1">
+        <v>71</v>
       </c>
       <c r="H4" s="1">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.27400000000000002</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -571,34 +601,40 @@
         <v>1960</v>
       </c>
       <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.35</v>
       </c>
-      <c r="E5" s="1">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1">
-        <v>111</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="G5" s="1">
+        <v>71</v>
       </c>
       <c r="H5" s="1">
+        <v>111</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0.01</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -609,34 +645,40 @@
         <v>1960</v>
       </c>
       <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.45</v>
       </c>
-      <c r="E6" s="1">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1">
-        <v>111</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="G6" s="1">
+        <v>71</v>
       </c>
       <c r="H6" s="1">
+        <v>111</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0.01</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -647,34 +689,40 @@
         <v>1960</v>
       </c>
       <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="1">
-        <v>71</v>
-      </c>
-      <c r="F7" s="1">
-        <v>111</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
+      <c r="G7" s="1">
+        <v>71</v>
       </c>
       <c r="H7" s="1">
+        <v>111</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>0.01</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,34 +733,40 @@
         <v>1960</v>
       </c>
       <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.65</v>
       </c>
-      <c r="E8" s="1">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1">
-        <v>111</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+      <c r="G8" s="1">
+        <v>71</v>
       </c>
       <c r="H8" s="1">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.26</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>0.01</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -723,34 +777,40 @@
         <v>1960</v>
       </c>
       <c r="D9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.75</v>
       </c>
-      <c r="E9" s="1">
-        <v>71</v>
-      </c>
-      <c r="F9" s="1">
-        <v>111</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+      <c r="G9" s="1">
+        <v>71</v>
       </c>
       <c r="H9" s="1">
+        <v>111</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>0.01</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,34 +821,40 @@
         <v>1960</v>
       </c>
       <c r="D10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.85</v>
       </c>
-      <c r="E10" s="1">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1">
-        <v>111</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
+      <c r="G10" s="1">
+        <v>71</v>
       </c>
       <c r="H10" s="1">
+        <v>111</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,34 +865,40 @@
         <v>1960</v>
       </c>
       <c r="D11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.95</v>
       </c>
-      <c r="E11" s="1">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1">
-        <v>111</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
+      <c r="G11" s="1">
+        <v>71</v>
       </c>
       <c r="H11" s="1">
+        <v>111</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -837,34 +909,40 @@
         <v>1960</v>
       </c>
       <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="1">
         <v>1.05</v>
       </c>
-      <c r="E12" s="1">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1">
-        <v>111</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
+      <c r="G12" s="1">
+        <v>71</v>
       </c>
       <c r="H12" s="1">
+        <v>111</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.251</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -875,34 +953,40 @@
         <v>1960</v>
       </c>
       <c r="D13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E13" s="1">
-        <v>71</v>
-      </c>
-      <c r="F13" s="1">
-        <v>111</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
+      <c r="G13" s="1">
+        <v>71</v>
       </c>
       <c r="H13" s="1">
+        <v>111</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -913,34 +997,40 @@
         <v>1960</v>
       </c>
       <c r="D14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.25</v>
       </c>
-      <c r="E14" s="1">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1">
-        <v>111</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
+      <c r="G14" s="1">
+        <v>71</v>
       </c>
       <c r="H14" s="1">
+        <v>111</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
         <v>0.23</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -951,34 +1041,40 @@
         <v>1960</v>
       </c>
       <c r="D15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="1">
         <v>1.35</v>
       </c>
-      <c r="E15" s="1">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1">
-        <v>111</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
+      <c r="G15" s="1">
+        <v>71</v>
       </c>
       <c r="H15" s="1">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.223</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -989,34 +1085,40 @@
         <v>1960</v>
       </c>
       <c r="D16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1">
         <v>1.45</v>
       </c>
-      <c r="E16" s="1">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1">
-        <v>111</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
+      <c r="G16" s="1">
+        <v>71</v>
       </c>
       <c r="H16" s="1">
+        <v>111</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1027,34 +1129,40 @@
         <v>1960</v>
       </c>
       <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="1">
         <v>1.55</v>
       </c>
-      <c r="E17" s="1">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1">
-        <v>111</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
+      <c r="G17" s="1">
+        <v>71</v>
       </c>
       <c r="H17" s="1">
+        <v>111</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.191</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1065,34 +1173,40 @@
         <v>1960</v>
       </c>
       <c r="D18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F18" s="1">
         <v>1.65</v>
       </c>
-      <c r="E18" s="1">
-        <v>71</v>
-      </c>
-      <c r="F18" s="1">
-        <v>111</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
+      <c r="G18" s="1">
+        <v>71</v>
       </c>
       <c r="H18" s="1">
+        <v>111</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.17</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,34 +1217,40 @@
         <v>1960</v>
       </c>
       <c r="D19" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F19" s="1">
         <v>1.75</v>
       </c>
-      <c r="E19" s="1">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1">
-        <v>111</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+      <c r="G19" s="1">
+        <v>71</v>
       </c>
       <c r="H19" s="1">
+        <v>111</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,34 +1261,40 @@
         <v>1960</v>
       </c>
       <c r="D20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F20" s="1">
         <v>1.85</v>
       </c>
-      <c r="E20" s="1">
-        <v>71</v>
-      </c>
-      <c r="F20" s="1">
-        <v>111</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+      <c r="G20" s="1">
+        <v>71</v>
       </c>
       <c r="H20" s="1">
+        <v>111</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,34 +1305,40 @@
         <v>1960</v>
       </c>
       <c r="D21" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>1.95</v>
       </c>
-      <c r="E21" s="1">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1">
-        <v>111</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
+      <c r="G21" s="1">
+        <v>71</v>
       </c>
       <c r="H21" s="1">
+        <v>111</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1217,34 +1349,40 @@
         <v>1960</v>
       </c>
       <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F22" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E22" s="1">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1">
-        <v>111</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
+      <c r="G22" s="1">
+        <v>71</v>
       </c>
       <c r="H22" s="1">
+        <v>111</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,34 +1393,40 @@
         <v>1960</v>
       </c>
       <c r="D23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F23" s="1">
         <v>2.15</v>
       </c>
-      <c r="E23" s="1">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1">
-        <v>111</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
+      <c r="G23" s="1">
+        <v>71</v>
       </c>
       <c r="H23" s="1">
+        <v>111</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,34 +1437,40 @@
         <v>1960</v>
       </c>
       <c r="D24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24" s="1">
         <v>2.25</v>
       </c>
-      <c r="E24" s="1">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1">
-        <v>111</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
+      <c r="G24" s="1">
+        <v>71</v>
       </c>
       <c r="H24" s="1">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K24" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1331,34 +1481,40 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F25" s="1">
         <v>2.35</v>
       </c>
-      <c r="E25" s="1">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1">
-        <v>111</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
+      <c r="G25" s="1">
+        <v>71</v>
       </c>
       <c r="H25" s="1">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>2E-3</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,34 +1525,40 @@
         <v>1960</v>
       </c>
       <c r="D26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E26" s="1">
-        <v>71</v>
-      </c>
-      <c r="F26" s="1">
-        <v>111</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
+      <c r="G26" s="1">
+        <v>71</v>
       </c>
       <c r="H26" s="1">
+        <v>111</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,34 +1569,40 @@
         <v>1960</v>
       </c>
       <c r="D27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F27" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E27" s="1">
-        <v>71</v>
-      </c>
-      <c r="F27" s="1">
-        <v>111</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
+      <c r="G27" s="1">
+        <v>71</v>
       </c>
       <c r="H27" s="1">
+        <v>111</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,34 +1613,40 @@
         <v>1960</v>
       </c>
       <c r="D28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F28" s="1">
         <v>2.65</v>
       </c>
-      <c r="E28" s="1">
-        <v>71</v>
-      </c>
-      <c r="F28" s="1">
-        <v>111</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
+      <c r="G28" s="1">
+        <v>71</v>
       </c>
       <c r="H28" s="1">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="K28" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,30 +1657,36 @@
         <v>1960</v>
       </c>
       <c r="D29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F29" s="1">
         <v>2.75</v>
       </c>
-      <c r="E29" s="1">
-        <v>71</v>
-      </c>
-      <c r="F29" s="1">
-        <v>111</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
+      <c r="G29" s="1">
+        <v>71</v>
       </c>
       <c r="H29" s="1">
+        <v>111</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2">
         <v>1</v>
       </c>
     </row>

--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -29,9 +29,6 @@
     <t>cms</t>
   </si>
   <si>
-    <t>eta</t>
-  </si>
-  <si>
     <t>boson</t>
   </si>
   <si>
@@ -71,13 +68,16 @@
     <t>D0(Z)</t>
   </si>
   <si>
-    <t>Z_rap</t>
-  </si>
-  <si>
-    <t>eta_min</t>
-  </si>
-  <si>
-    <t>eta_max</t>
+    <t>Z_xsec_norm</t>
+  </si>
+  <si>
+    <t>Y_min</t>
+  </si>
+  <si>
+    <t>Y_max</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -404,66 +404,67 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -484,7 +485,7 @@
         <v>111</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1">
         <v>0.27100000000000002</v>
@@ -496,7 +497,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -504,10 +505,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -528,7 +529,7 @@
         <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1">
         <v>0.27600000000000002</v>
@@ -540,7 +541,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -548,10 +549,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -572,7 +573,7 @@
         <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1">
         <v>0.27400000000000002</v>
@@ -584,7 +585,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -592,10 +593,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -616,7 +617,7 @@
         <v>111</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1">
         <v>0.26600000000000001</v>
@@ -628,7 +629,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
@@ -636,10 +637,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -660,7 +661,7 @@
         <v>111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1">
         <v>0.27800000000000002</v>
@@ -672,7 +673,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -680,10 +681,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -704,7 +705,7 @@
         <v>111</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
         <v>0.26900000000000002</v>
@@ -716,7 +717,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -724,10 +725,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -748,7 +749,7 @@
         <v>111</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1">
         <v>0.26</v>
@@ -760,7 +761,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -768,10 +769,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -792,7 +793,7 @@
         <v>111</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1">
         <v>0.27600000000000002</v>
@@ -804,7 +805,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
@@ -812,10 +813,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -836,7 +837,7 @@
         <v>111</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1">
         <v>0.23499999999999999</v>
@@ -848,7 +849,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -856,10 +857,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -880,7 +881,7 @@
         <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1">
         <v>0.24399999999999999</v>
@@ -892,7 +893,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -900,10 +901,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -924,7 +925,7 @@
         <v>111</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1">
         <v>0.251</v>
@@ -936,7 +937,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
@@ -944,10 +945,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -968,7 +969,7 @@
         <v>111</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1">
         <v>0.23499999999999999</v>
@@ -980,7 +981,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -988,10 +989,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -1012,7 +1013,7 @@
         <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1">
         <v>0.23</v>
@@ -1024,7 +1025,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -1032,10 +1033,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>1960</v>
@@ -1056,7 +1057,7 @@
         <v>111</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1">
         <v>0.223</v>
@@ -1068,7 +1069,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
@@ -1076,10 +1077,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>1960</v>
@@ -1100,7 +1101,7 @@
         <v>111</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1">
         <v>0.21099999999999999</v>
@@ -1112,7 +1113,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -1120,10 +1121,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>1960</v>
@@ -1144,7 +1145,7 @@
         <v>111</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1">
         <v>0.191</v>
@@ -1156,7 +1157,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
@@ -1164,10 +1165,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>1960</v>
@@ -1188,7 +1189,7 @@
         <v>111</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1">
         <v>0.17</v>
@@ -1200,7 +1201,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -1208,10 +1209,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>1960</v>
@@ -1232,7 +1233,7 @@
         <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1">
         <v>0.16800000000000001</v>
@@ -1244,7 +1245,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -1252,10 +1253,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>1960</v>
@@ -1276,7 +1277,7 @@
         <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1">
         <v>0.14199999999999999</v>
@@ -1288,7 +1289,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -1296,10 +1297,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>1960</v>
@@ -1320,7 +1321,7 @@
         <v>111</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>0.11899999999999999</v>
@@ -1332,7 +1333,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -1340,10 +1341,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>1960</v>
@@ -1364,7 +1365,7 @@
         <v>111</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1">
         <v>0.11700000000000001</v>
@@ -1376,7 +1377,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
@@ -1384,10 +1385,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>1960</v>
@@ -1408,7 +1409,7 @@
         <v>111</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
         <v>9.0999999999999998E-2</v>
@@ -1420,7 +1421,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23" s="2">
         <v>1</v>
@@ -1428,10 +1429,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>1960</v>
@@ -1452,7 +1453,7 @@
         <v>111</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1">
         <v>6.9000000000000006E-2</v>
@@ -1464,7 +1465,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -1472,10 +1473,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>1960</v>
@@ -1496,7 +1497,7 @@
         <v>111</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1">
         <v>4.9000000000000002E-2</v>
@@ -1508,7 +1509,7 @@
         <v>2E-3</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
@@ -1516,10 +1517,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>1960</v>
@@ -1540,7 +1541,7 @@
         <v>111</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1">
         <v>3.9E-2</v>
@@ -1552,7 +1553,7 @@
         <v>2E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N26" s="2">
         <v>1</v>
@@ -1560,10 +1561,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>1960</v>
@@ -1584,7 +1585,7 @@
         <v>111</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1">
         <v>1.7999999999999999E-2</v>
@@ -1596,7 +1597,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -1604,10 +1605,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>1960</v>
@@ -1628,7 +1629,7 @@
         <v>111</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1">
         <v>1.4E-2</v>
@@ -1640,7 +1641,7 @@
         <v>1E-3</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -1648,10 +1649,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>1960</v>
@@ -1672,7 +1673,7 @@
         <v>111</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1684,7 +1685,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>

--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\zrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB26E8A6-1D00-084A-83F1-CAED59BC9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +54,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>m_min</t>
   </si>
   <si>
@@ -78,12 +76,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,22 +401,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -426,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -450,18 +451,18 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -497,15 +498,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -541,15 +542,15 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -585,15 +586,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -629,15 +630,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -673,15 +674,15 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -717,15 +718,15 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -761,15 +762,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -805,15 +806,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -849,15 +850,15 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -893,15 +894,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -937,15 +938,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -981,15 +982,15 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1025,15 +1026,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1069,15 +1070,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1113,15 +1114,15 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -1157,15 +1158,15 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1201,15 +1202,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1245,15 +1246,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1289,15 +1290,15 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1333,15 +1334,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1377,15 +1378,15 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1421,15 +1422,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1465,15 +1466,15 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1509,15 +1510,15 @@
         <v>2E-3</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1553,15 +1554,15 @@
         <v>2E-3</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1597,15 +1598,15 @@
         <v>1.5E-3</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1641,15 +1642,15 @@
         <v>1E-3</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1685,7 +1686,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>

--- a/zrap/expdata/1001.xlsx
+++ b/zrap/expdata/1001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/zrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC48E00-D892-0546-A4D4-00A4B2FA0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB244C-0851-F94D-92A0-72F44801EA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
   <si>
     <t>cms</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>syst_c</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,7 +422,7 @@
     <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,8 +465,11 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,8 +512,11 @@
       <c r="N2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -547,8 +559,11 @@
       <c r="N3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="N4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -679,8 +700,11 @@
       <c r="N6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="N7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -767,8 +794,11 @@
       <c r="N8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -811,8 +841,11 @@
       <c r="N9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,8 +888,11 @@
       <c r="N10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -899,8 +935,11 @@
       <c r="N11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,8 +982,11 @@
       <c r="N12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -987,8 +1029,11 @@
       <c r="N13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,8 +1076,11 @@
       <c r="N14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1075,8 +1123,11 @@
       <c r="N15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1119,8 +1170,11 @@
       <c r="N16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1163,8 +1217,11 @@
       <c r="N17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1207,8 +1264,11 @@
       <c r="N18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,8 +1311,11 @@
       <c r="N19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,8 +1358,11 @@
       <c r="N20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1339,8 +1405,11 @@
       <c r="N21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1452,11 @@
       <c r="N22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1427,8 +1499,11 @@
       <c r="N23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,8 +1546,11 @@
       <c r="N24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1515,8 +1593,11 @@
       <c r="N25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1559,8 +1640,11 @@
       <c r="N26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1603,8 +1687,11 @@
       <c r="N27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1647,8 +1734,11 @@
       <c r="N28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1690,6 +1780,9 @@
       </c>
       <c r="N29" s="2">
         <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
